--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint 2/Impediment_Log_Sprint 2.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Sprint 2/Impediment_Log_Sprint 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danixa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="342" documentId="13_ncr:1_{6B7C97D9-700E-4CE9-A51E-46CF5633DA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB48A44F-8886-4431-8FE8-2CDEE2322E4B}"/>
+  <xr:revisionPtr revIDLastSave="355" documentId="13_ncr:1_{6B7C97D9-700E-4CE9-A51E-46CF5633DA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20B1AF18-08A4-4EA5-969F-033B7FB0542D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ECCB6707-899D-4E21-ABC5-FA6931BD51AA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>Scrum Project</t>
   </si>
@@ -116,7 +116,7 @@
     <t>Dev</t>
   </si>
   <si>
-    <t>Pendiente</t>
+    <t>Cerrado</t>
   </si>
   <si>
     <t>Se revisó la compatibilidad de librerías .ogg y se actualizó el asset bundle.</t>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Rediseñar interfaz y agregar indicadores visuales guiados</t>
+  </si>
+  <si>
+    <t>20/102025</t>
   </si>
   <si>
     <t>Reportado por 3 testers en piloto interno</t>
@@ -423,8 +426,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo visitado" xfId="1" builtinId="9" customBuiltin="1"/>
@@ -742,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4029EFBE-DA52-4DD7-8B40-86543502F354}">
   <dimension ref="B3:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -753,7 +758,7 @@
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="57" customWidth="1"/>
+    <col min="9" max="9" width="59.140625" customWidth="1"/>
     <col min="11" max="11" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -885,7 +890,9 @@
       <c r="I15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="14"/>
+      <c r="J15" s="15">
+        <v>45946</v>
+      </c>
       <c r="K15" s="14" t="s">
         <v>28</v>
       </c>
@@ -915,7 +922,9 @@
       <c r="I16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="14"/>
+      <c r="J16" s="15">
+        <v>45945</v>
+      </c>
       <c r="K16" s="14" t="s">
         <v>33</v>
       </c>
@@ -945,7 +954,9 @@
       <c r="I17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="14"/>
+      <c r="J17" s="15">
+        <v>45959</v>
+      </c>
       <c r="K17" s="14" t="s">
         <v>38</v>
       </c>
@@ -970,12 +981,14 @@
         <v>25</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="14"/>
+      <c r="J18" s="15">
+        <v>45960</v>
+      </c>
       <c r="K18" s="14" t="s">
         <v>43</v>
       </c>
@@ -1000,12 +1013,14 @@
         <v>25</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="14"/>
+      <c r="J19" s="15">
+        <v>45951</v>
+      </c>
       <c r="K19" s="14" t="s">
         <v>47</v>
       </c>
@@ -1035,7 +1050,9 @@
       <c r="I20" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="14"/>
+      <c r="J20" s="15">
+        <v>45938</v>
+      </c>
       <c r="K20" s="14" t="s">
         <v>51</v>
       </c>
@@ -1065,17 +1082,19 @@
       <c r="I21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="14"/>
+      <c r="J21" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="K21" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>25</v>
@@ -1093,205 +1112,41 @@
         <v>26</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J22" s="14"/>
+        <v>60</v>
+      </c>
+      <c r="J22" s="15">
+        <v>45937</v>
+      </c>
       <c r="K22" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="2:11">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:11">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
+      <c r="E26" s="19"/>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-    </row>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="2:11"/>
+    <row r="29" spans="2:11"/>
+    <row r="30" spans="2:11"/>
+    <row r="31" spans="2:11"/>
+    <row r="32" spans="2:11"/>
+    <row r="33" spans="2:11"/>
+    <row r="34" spans="2:11"/>
+    <row r="35" spans="2:11"/>
+    <row r="36" spans="2:11"/>
+    <row r="37" spans="2:11"/>
+    <row r="38" spans="2:11"/>
     <row r="39" spans="2:11">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
